--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/Stub Advertiser EF EM MDN PA Q1'20-Q2'20 Plan Rev - 12-16 v2.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/Stub Advertiser EF EM MDN PA Q1'20-Q2'20 Plan Rev - 12-16 v2.xlsx
@@ -498,7 +498,24 @@
         <d:color rgb="FF3D5261"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t xml:space="preserve">Genres exclude Documentary, Action/Adventure, Children (Plan ID 1850) include Documentary (Plan ID 1851)  | Program include BIG BANG THEORY, Big Bang Theory/Young Sheldon-CBS (Plan ID 1850) exclude The Big Bang Theory (Plan ID 1851) </d:t>
+      <d:t xml:space="preserve">Genres exclude Documentary, Action/Adventure, Children (Plan ID 1850) | Program include BIG BANG THEORY, Big Bang Theory/Young Sheldon-CBS (Plan ID 1850)</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="14"/>
+        <d:color rgb="FF3D5261"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> MDN: </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="14"/>
+        <d:color rgb="FF3D5261"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Genres include Documentary (Plan ID 1851) | Program exclude The Big Bang Theory (Plan ID 1851)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -522,7 +539,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/14/20</t>
+    <t>Created 02/19/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -561,10 +578,10 @@
     <t>~80% Minimum TV HH Coverage | Blackout Markets: Lansing, Wilmington, Presque Isle | Preferential Markets: Philadelphia, Macon, New York, Binghamton</t>
   </si>
   <si>
-    <t>EF - 03:00pm - 06:00pm, EM - 06:00am - 09:00am, MDN - 11:00am - 01:00pm, PA - 06:00pm - 08:00pm</t>
+    <t>EF - M-SU 03:00pm - 06:00pm, EF - M-TU,TH-SU 03:00pm - 06:00pm, EM - M-SU 06:00am - 09:00am, EM - M-TU,TH-SU 06:00am - 09:00am, MDN - M-F,SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm, MDN - M-TU,TH-SU 11:00am - 01:00pm, PA - M-F,SU 06:00pm - 08:00pm</t>
   </si>
   <si>
-    <t>3/15-3/17/20, 3/19-3/21/20, 3/24/20, 3/26-3/29/20, 4/7-4/11/20</t>
+    <t>3/19-3/20/20, 3/24/20, 3/28/20, 4/7/20, 4/9-3/17/20, 3/21/20, 3/26/20, 4/8-3/27/20, 3/29/20</t>
   </si>
   <si>
     <t>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</t>
@@ -2612,7 +2629,7 @@
       </c>
       <c r="L2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/14/20</v>
+        <v>Created 02/19/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6163,7 +6180,7 @@
       </c>
       <c r="D119" s="137" t="str">
         <f>'PROPOSAL'!F51</f>
-        <v>EF - 03:00pm - 06:00pm, EM - 06:00am - 09:00am, MDN - 11:00am - 01:00pm, PA - 06:00pm - 08:00pm</v>
+        <v>EF - M-SU 03:00pm - 06:00pm, EF - M-TU,TH-SU 03:00pm - 06:00pm, EM - M-SU 06:00am - 09:00am, EM - M-TU,TH-SU 06:00am - 09:00am, MDN - M-F,SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm, MDN - M-TU,TH-SU 11:00am - 01:00pm, PA - M-F,SU 06:00pm - 08:00pm</v>
       </c>
       <c r="E119" s="137"/>
       <c r="F119" s="137"/>
@@ -6244,7 +6261,7 @@
       </c>
       <c r="D123" s="137" t="str">
         <f>'PROPOSAL'!F55</f>
-        <v>3/15-3/17/20, 3/19-3/21/20, 3/24/20, 3/26-3/29/20, 4/7-4/11/20</v>
+        <v>3/19-3/20/20, 3/24/20, 3/28/20, 4/7/20, 4/9-3/17/20, 3/21/20, 3/26/20, 4/8-3/27/20, 3/29/20</v>
       </c>
       <c r="E123" s="137"/>
       <c r="F123" s="137"/>
@@ -6391,7 +6408,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/14/20</v>
+        <v>Created 02/19/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6417,7 +6434,7 @@
       </c>
       <c r="D5" s="135" t="str">
         <f>'PROPOSAL'!F51</f>
-        <v>EF - 03:00pm - 06:00pm, EM - 06:00am - 09:00am, MDN - 11:00am - 01:00pm, PA - 06:00pm - 08:00pm</v>
+        <v>EF - M-SU 03:00pm - 06:00pm, EF - M-TU,TH-SU 03:00pm - 06:00pm, EM - M-SU 06:00am - 09:00am, EM - M-TU,TH-SU 06:00am - 09:00am, MDN - M-F,SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm, MDN - M-TU,TH-SU 11:00am - 01:00pm, PA - M-F,SU 06:00pm - 08:00pm</v>
       </c>
       <c r="E5" s="135"/>
       <c r="F5" s="135"/>
